--- a/TestData/Web_POS/Order/Product_catalog_order_test_data.xlsx
+++ b/TestData/Web_POS/Order/Product_catalog_order_test_data.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Indexnine\PycharmProjects\zwing-qa-automation\TestData\Web_POS\Order\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>TC_Id</t>
   </si>
@@ -127,46 +133,49 @@
     <t>userone_p1</t>
   </si>
   <si>
-    <t>1000</t>
+    <t>2000 : 1</t>
+  </si>
+  <si>
+    <t>500 : 1</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>PC_2</t>
+  </si>
+  <si>
+    <t>PC_3</t>
+  </si>
+  <si>
+    <t>PC_4</t>
+  </si>
+  <si>
+    <t>Body Scrub</t>
+  </si>
+  <si>
+    <t>Index9QA</t>
+  </si>
+  <si>
+    <t>PC_5</t>
+  </si>
+  <si>
+    <t>Plum Body</t>
+  </si>
+  <si>
+    <t>i9qa</t>
+  </si>
+  <si>
+    <t>dummy</t>
+  </si>
+  <si>
+    <t>ADFGHJKZXCVBN</t>
   </si>
   <si>
     <t>500</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>PC_2</t>
-  </si>
-  <si>
-    <t>PC_3</t>
-  </si>
-  <si>
-    <t>PC_4</t>
-  </si>
-  <si>
-    <t>Body Scrub</t>
-  </si>
-  <si>
-    <t>Index9QA</t>
-  </si>
-  <si>
-    <t>PC_5</t>
-  </si>
-  <si>
-    <t>Plum Body</t>
-  </si>
-  <si>
-    <t>i9qa</t>
-  </si>
-  <si>
-    <t>dummy</t>
-  </si>
-  <si>
-    <t>ADFGHJKZXCVBN</t>
   </si>
   <si>
     <t>250</t>
@@ -226,15 +235,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -245,37 +256,50 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left>
+        <color indexed="64"/>
+      </left>
+      <right>
+        <color indexed="64"/>
+      </right>
+      <top>
+        <color indexed="64"/>
+      </top>
+      <bottom>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal>
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -357,6 +381,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -383,24 +408,25 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="19050" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -461,6 +487,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -469,16 +496,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +609,7 @@
       </c>
       <c r="AH1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -599,10 +628,10 @@
       <c r="F2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -682,7 +711,7 @@
       </c>
       <c r="AH2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -701,10 +730,10 @@
       <c r="F3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -784,7 +813,7 @@
       </c>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -803,10 +832,10 @@
       <c r="F4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>39</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -886,7 +915,7 @@
       </c>
       <c r="AH4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -905,10 +934,10 @@
       <c r="F5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -988,7 +1017,7 @@
       </c>
       <c r="AH5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -1007,10 +1036,10 @@
       <c r="F6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -1068,19 +1097,19 @@
         <v>51</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>40</v>
@@ -1090,9 +1119,9 @@
       </c>
       <c r="AH6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>34</v>
@@ -1109,10 +1138,10 @@
       <c r="F7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="3" t="s">
         <v>39</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -1128,7 +1157,7 @@
         <v>40</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>40</v>
@@ -1192,9 +1221,9 @@
       </c>
       <c r="AH7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>34</v>
@@ -1211,10 +1240,10 @@
       <c r="F8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="3" t="s">
         <v>39</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -1251,7 +1280,7 @@
         <v>40</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>46</v>
@@ -1287,16 +1316,16 @@
         <v>40</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AH8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>34</v>
@@ -1313,10 +1342,10 @@
       <c r="F9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -1332,7 +1361,7 @@
         <v>40</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>40</v>
@@ -1353,7 +1382,7 @@
         <v>40</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>46</v>
@@ -1389,19 +1418,19 @@
         <v>40</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AH9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>35</v>
@@ -1410,15 +1439,15 @@
         <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="3" t="s">
         <v>39</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1434,7 +1463,7 @@
         <v>40</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>40</v>
@@ -1455,13 +1484,13 @@
         <v>40</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W10" s="1" t="s">
         <v>40</v>
@@ -1491,19 +1520,19 @@
         <v>40</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG10" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AH10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
@@ -1512,15 +1541,15 @@
         <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -1536,7 +1565,7 @@
         <v>40</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>40</v>
@@ -1557,13 +1586,13 @@
         <v>40</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>40</v>
@@ -1593,14 +1622,14 @@
         <v>40</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AH11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1636,7 +1665,7 @@
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1672,7 +1701,7 @@
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1708,7 +1737,7 @@
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1744,7 +1773,7 @@
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1780,7 +1809,7 @@
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1816,7 +1845,7 @@
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1852,7 +1881,7 @@
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1889,6 +1918,5 @@
       <c r="AH19" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestData/Web_POS/Order/Product_catalog_order_test_data.xlsx
+++ b/TestData/Web_POS/Order/Product_catalog_order_test_data.xlsx
@@ -286,9 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,8 +499,8 @@
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H11"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A5">
+      <selection activeCell="G12" sqref="G12:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -1636,8 +1634,8 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1672,8 +1670,8 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1708,8 +1706,8 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1744,8 +1742,8 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1780,8 +1778,8 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1816,8 +1814,8 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
